--- a/genetyczne_statystyki_lista5.xlsx
+++ b/genetyczne_statystyki_lista5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\suma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC96B709-D6DC-40B8-A566-E09FF82EA48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850C4111-A361-43F2-B30D-495330A8D5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{8C36719B-7042-4462-B97D-D0B0DDD0CF1C}"/>
+    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="5" xr2:uid="{8C36719B-7042-4462-B97D-D0B0DDD0CF1C}"/>
   </bookViews>
   <sheets>
     <sheet name="lista 5.1" sheetId="1" r:id="rId1"/>
@@ -41,39 +41,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="86">
   <si>
     <t>Populacja 10</t>
-  </si>
-  <si>
-    <t>Pokolenie 1</t>
-  </si>
-  <si>
-    <t>Pokolenie 2</t>
-  </si>
-  <si>
-    <t>Pokolenie 3</t>
-  </si>
-  <si>
-    <t>Pokolenie 4</t>
-  </si>
-  <si>
-    <t>Pokolenie 5</t>
-  </si>
-  <si>
-    <t>Pokolenie 6</t>
-  </si>
-  <si>
-    <t>Pokolenie 7</t>
-  </si>
-  <si>
-    <t>Pokolenie 8</t>
-  </si>
-  <si>
-    <t>Pokolenie 9</t>
-  </si>
-  <si>
-    <t>Pokolenie 10</t>
   </si>
   <si>
     <t>Różnorodność</t>
@@ -776,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -788,6 +758,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1448,6 +1424,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Zmiany wartości przystosowania na przestrzeni pookoleń</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1479,11 +1480,237 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.7270778652668423E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.90339588801399828"/>
+          <c:h val="0.6153546952464275"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'lista 5.6'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Najlepsza wartość fitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'lista 5.6'!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'lista 5.6'!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA86-4C23-B894-57EB7E13EAC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'lista 5.6'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Najgorsza wartość fitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'lista 5.6'!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'lista 5.6'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-84.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-175.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-76.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-13.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CA86-4C23-B894-57EB7E13EAC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1492,18 +1719,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="652827440"/>
-        <c:axId val="652830320"/>
+        <c:gapWidth val="182"/>
+        <c:axId val="765661712"/>
+        <c:axId val="765663512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="652827440"/>
+        <c:axId val="765661712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1540,7 +1767,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652830320"/>
+        <c:crossAx val="765663512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1548,12 +1775,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="652830320"/>
+        <c:axId val="765663512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1599,7 +1826,400 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652827440"/>
+        <c:crossAx val="765661712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Średnia wartość fitness</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t> na przestrzeni pokoleń</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8159667541557304E-2"/>
+          <c:y val="0.15782407407407409"/>
+          <c:w val="0.90972922134733158"/>
+          <c:h val="0.72125801983085447"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'lista 5.6'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Średnia wartość fitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'lista 5.6'!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'lista 5.6'!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-25.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-46.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58B0-4850-876B-40D65A53ED4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="654755648"/>
+        <c:axId val="654756008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="654755648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="654756008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="654756008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="654755648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1613,13 +2233,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1696,6 +2309,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2239,7 +2892,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2443,22 +3096,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2563,8 +3217,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2696,19 +3350,525 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2786,23 +3946,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Wykres 1">
+        <xdr:cNvPr id="5" name="Wykres 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A0EDC8B-D0BF-7186-EA4A-76DCB03AE179}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF06F96-F977-5859-14C8-AE9E6BA170AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2815,6 +3975,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50429932-ED7F-5D47-FA37-46EC1F1672FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3142,7 +4338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9092DB-D6AD-4E11-8DF5-AA551275AC32}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A47" sqref="A47:A50"/>
     </sheetView>
   </sheetViews>
@@ -3157,27 +4353,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3352,7 +4548,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <f>AVERAGE(B3:B12)</f>
@@ -3373,7 +4569,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <f>MEDIAN(B3:B12)</f>
@@ -3394,24 +4590,24 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3431,7 +4627,7 @@
         <v>0.8</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3589,7 +4785,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B28">
         <f>AVERAGE(B18:B27)</f>
@@ -3610,7 +4806,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <f>MEDIAN(B18:B27)</f>
@@ -3631,24 +4827,24 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3668,7 +4864,7 @@
         <v>0.4</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3826,7 +5022,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B43">
         <f>AVERAGE(B33:B42)</f>
@@ -3847,7 +5043,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B44">
         <f>MEDIAN(B33:B42)</f>
@@ -3868,18 +5064,18 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3964,50 +5160,50 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4332,7 +5528,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <f>AVERAGE(B4:B13)</f>
@@ -4351,7 +5547,7 @@
         <v>0.81666000000000005</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <f>AVERAGE(I4:I13)</f>
@@ -4372,7 +5568,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <f>MEDIAN(B4:B13)</f>
@@ -4391,7 +5587,7 @@
         <v>0.83330000000000004</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I15">
         <f>MEDIAN(I4:I13)</f>
@@ -4412,50 +5608,50 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K18" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L18" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -4780,7 +5976,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B29">
         <f>AVERAGE(B19:B28)</f>
@@ -4799,7 +5995,7 @@
         <v>0.56665999999999994</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <f>AVERAGE(I19:I28)</f>
@@ -4820,7 +6016,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B30">
         <f>MEDIAN(B19:B28)</f>
@@ -4839,7 +6035,7 @@
         <v>0.5</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I30">
         <f>MEDIAN(I19:I28)</f>
@@ -4861,50 +6057,50 @@
     <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K33" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L33" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -5229,7 +6425,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B44">
         <f>AVERAGE(B34:B43)</f>
@@ -5248,7 +6444,7 @@
         <v>0.68332999999999999</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I44">
         <f>AVERAGE(I34:I43)</f>
@@ -5269,7 +6465,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B45">
         <f>MEDIAN(B34:B43)</f>
@@ -5288,7 +6484,7 @@
         <v>0.58335000000000004</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I45">
         <f>MEDIAN(I34:I43)</f>
@@ -5309,7 +6505,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -5317,17 +6513,17 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
@@ -5335,17 +6531,17 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
@@ -5353,12 +6549,12 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5385,54 +6581,54 @@
     <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -5757,7 +6953,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <f>AVERAGE(B4:B13)</f>
@@ -5776,7 +6972,7 @@
         <v>0.68332999999999999</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <f>AVERAGE(I4:I13)</f>
@@ -5797,7 +6993,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <f>MEDIAN(B4:B13)</f>
@@ -5816,7 +7012,7 @@
         <v>0.58335000000000004</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I15">
         <f>MEDIAN(I4:I13)</f>
@@ -5837,54 +7033,54 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K19" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L19" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -6209,7 +7405,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B30">
         <f>AVERAGE(B20:B29)</f>
@@ -6228,7 +7424,7 @@
         <v>0.37999999999999989</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I30">
         <f>AVERAGE(I20:I29)</f>
@@ -6249,7 +7445,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B31">
         <f>MEDIAN(B20:B29)</f>
@@ -6268,7 +7464,7 @@
         <v>0.37</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I31">
         <f>MEDIAN(I20:I29)</f>
@@ -6289,30 +7485,30 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -6488,7 +7684,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B46">
         <f>AVERAGE(B36:B45)</f>
@@ -6509,7 +7705,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B47">
         <f>MEDIAN(B36:B45)</f>
@@ -6530,22 +7726,22 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -6568,13 +7764,13 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -6582,22 +7778,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6772,7 +7968,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <f>AVERAGE(B4:B13)</f>
@@ -6793,7 +7989,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <f>MEDIAN(B4:B13)</f>
@@ -6814,13 +8010,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>0</v>
@@ -6828,22 +8024,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -7018,7 +8214,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B30">
         <f>AVERAGE(B20:B29)</f>
@@ -7039,7 +8235,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B31">
         <f>MEDIAN(B20:B29)</f>
@@ -7060,13 +8256,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>0</v>
@@ -7074,22 +8270,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -7264,7 +8460,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B46">
         <f>AVERAGE(B36:B45)</f>
@@ -7285,7 +8481,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B47">
         <f>MEDIAN(B36:B45)</f>
@@ -7306,13 +8502,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>0</v>
@@ -7320,22 +8516,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -7510,7 +8706,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B62">
         <f>AVERAGE(B52:B61)</f>
@@ -7531,7 +8727,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B63">
         <f>MEDIAN(B52:B61)</f>
@@ -7552,13 +8748,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>0</v>
@@ -7566,22 +8762,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -7756,7 +8952,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B77">
         <f>AVERAGE(B67:B76)</f>
@@ -7777,7 +8973,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B78">
         <f>MEDIAN(B67:B76)</f>
@@ -7798,17 +8994,17 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -7834,39 +9030,39 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -8041,7 +9237,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <f>AVERAGE(B4:B13)</f>
@@ -8062,7 +9258,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <f>MEDIAN(B4:B13)</f>
@@ -8083,39 +9279,39 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -8290,7 +9486,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B29">
         <f>AVERAGE(B19:B28)</f>
@@ -8311,7 +9507,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B30">
         <f>MEDIAN(B19:B28)</f>
@@ -8332,39 +9528,39 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -8539,7 +9735,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B44">
         <f>AVERAGE(B34:B43)</f>
@@ -8560,7 +9756,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B45">
         <f>MEDIAN(B34:B43)</f>
@@ -8586,446 +9782,248 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A8CFA1-EBF2-48F4-8077-7D4A67FECACC}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="5" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="G2" s="7">
+        <v>-84.1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>-25.22</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>8</v>
+      </c>
+      <c r="G3" s="7">
+        <v>-175.2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>-46.53</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4" s="7">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7">
+        <v>-76.25</v>
+      </c>
+      <c r="H4" s="7">
+        <v>-8.82</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G5" s="7">
+        <v>-13.8</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>10.07</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="E7" s="7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G7" s="7">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7">
+        <v>16.75</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12">
-        <v>-84.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13">
-        <v>-25.22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17">
+        <v>81</v>
+      </c>
+      <c r="E8" s="7">
+        <v>7</v>
+      </c>
+      <c r="F8" s="7">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G8" s="7">
+        <v>-10.5</v>
+      </c>
+      <c r="H8" s="7">
+        <v>10.59</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18">
-        <v>-175.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19">
-        <v>-46.53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24">
-        <v>-76.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25">
-        <v>-8.82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29">
+      <c r="F9" s="7">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G9" s="7">
+        <v>8</v>
+      </c>
+      <c r="H9" s="7">
+        <v>17.41</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="7">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30">
-        <v>-13.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37">
-        <v>10.07</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43">
-        <v>16.75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48">
-        <v>-10.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49">
-        <v>10.59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55">
-        <v>17.41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59">
+      <c r="G10" s="7">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60">
+      <c r="H10" s="7">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61">
+      <c r="I10" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="7">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>95</v>
-      </c>
-      <c r="B62">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65">
+      <c r="G11" s="7">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>93</v>
-      </c>
-      <c r="B66">
+      <c r="H11" s="7">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>95</v>
-      </c>
-      <c r="B68">
+      <c r="I11" s="7">
         <v>0.1</v>
       </c>
     </row>
